--- a/biology/Zoologie/Amauromyza_verbasci/Amauromyza_verbasci.xlsx
+++ b/biology/Zoologie/Amauromyza_verbasci/Amauromyza_verbasci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mouche mineuse du bouillon blanc
-Amauromyza verbasci, la Mouche mineuse du bouillon blanc, est une espèce d'insectes diptères brachycères (à antennes courtes) de la famille des Agromyzidae[1].
+Amauromyza verbasci, la Mouche mineuse du bouillon blanc, est une espèce d'insectes diptères brachycères (à antennes courtes) de la famille des Agromyzidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Plantes-hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Verbascum, Scrophularia, Buddleja, Phygelius capensis.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe.
 </t>
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Amauromyza verbasci (Bouché, 1847)[2]. L'espèce a été initialement classée dans le genre Agromyza sous le protonyme Agromyza verbasci Bouché, 1847[2],[3].
-Amauromyza verbasci a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Amauromyza verbasci (Bouché, 1847). L'espèce a été initialement classée dans le genre Agromyza sous le protonyme Agromyza verbasci Bouché, 1847,.
+Amauromyza verbasci a pour synonymes :
 Agromyza macquarti Goureau, 1851
 Agromyza verbasci Bouché, 1847
 Amauromyza macquarti (Goureau, 1851)
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) P. Fr. Bouché, « Beiträge zur Kenntiss der Insekten-Larven », Entomologische Zeitung, Szczecin, vol. 8,‎ 1847, p. 142-146 (OCLC 8441524, lire en ligne)</t>
         </is>
